--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>Observation.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -815,7 +815,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1020,7 +1020,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1051,7 +1051,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1319,7 +1319,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1351,7 +1351,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1407,7 +1407,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1440,7 +1440,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1452,7 +1452,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1560,7 +1560,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1610,7 +1610,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1643,7 +1643,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1680,7 +1680,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1702,7 +1702,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2122,7 +2122,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2137,7 +2137,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.78515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Tags applied to this resource</t>
@@ -3252,10 +3255,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -3492,10 +3495,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3510,13 +3513,13 @@
         <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3542,13 +3545,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3566,7 +3569,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3601,10 +3604,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3630,13 +3633,13 @@
         <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3686,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3721,10 +3724,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3747,16 +3750,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3782,13 +3785,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3806,7 +3809,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3841,14 +3844,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3867,16 +3870,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3926,7 +3929,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3950,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3961,14 +3964,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3987,16 +3990,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4046,7 +4049,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4070,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -4081,10 +4084,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4113,7 +4116,7 @@
         <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>116</v>
@@ -4166,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4190,7 +4193,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4201,10 +4204,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4230,16 +4233,16 @@
         <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4288,7 +4291,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4312,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4323,10 +4326,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4349,17 +4352,17 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4408,7 +4411,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4423,19 +4426,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4443,14 +4446,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4469,17 +4472,17 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4528,7 +4531,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4543,16 +4546,16 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4563,14 +4566,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4589,16 +4592,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4648,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4663,16 +4666,16 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4683,10 +4686,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4709,19 +4712,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4746,13 +4749,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4770,7 +4773,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>92</v>
@@ -4785,19 +4788,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4805,10 +4808,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4831,19 +4834,19 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4868,13 +4871,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4892,7 +4895,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4916,10 +4919,10 @@
         <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4927,14 +4930,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4953,19 +4956,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4990,13 +4993,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -5014,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>92</v>
@@ -5029,30 +5032,30 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5167,10 +5170,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5287,10 +5290,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5316,16 +5319,16 @@
         <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5374,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5395,10 +5398,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5409,10 +5412,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5527,10 +5530,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5647,10 +5650,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5676,16 +5679,16 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5695,7 +5698,7 @@
         <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>20</v>
@@ -5734,7 +5737,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5755,10 +5758,10 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5769,10 +5772,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5798,13 +5801,13 @@
         <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5854,7 +5857,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5875,10 +5878,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5889,10 +5892,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5915,17 +5918,17 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5935,7 +5938,7 @@
         <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>20</v>
@@ -5974,7 +5977,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5995,10 +5998,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -6009,10 +6012,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6038,14 +6041,14 @@
         <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6094,7 +6097,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6115,10 +6118,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6129,10 +6132,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6155,19 +6158,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6216,7 +6219,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6237,10 +6240,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6251,10 +6254,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6280,16 +6283,16 @@
         <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6338,7 +6341,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6359,10 +6362,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6373,10 +6376,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6399,19 +6402,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6460,7 +6463,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6475,19 +6478,19 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -6495,10 +6498,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6521,16 +6524,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6580,7 +6583,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6601,13 +6604,13 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6615,14 +6618,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6641,19 +6644,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6702,7 +6705,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6717,19 +6720,19 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6737,14 +6740,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6763,19 +6766,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6824,7 +6827,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6839,19 +6842,19 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6859,10 +6862,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6888,13 +6891,13 @@
         <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6944,7 +6947,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6965,13 +6968,13 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6979,10 +6982,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7005,17 +7008,17 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7064,7 +7067,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7079,19 +7082,19 @@
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -7099,10 +7102,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7125,19 +7128,19 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7174,7 +7177,7 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
@@ -7184,7 +7187,7 @@
         <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7193,7 +7196,7 @@
         <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>104</v>
@@ -7202,30 +7205,30 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>20</v>
@@ -7247,19 +7250,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7308,7 +7311,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7317,7 +7320,7 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
@@ -7326,27 +7329,27 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7461,10 +7464,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7581,10 +7584,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7610,16 +7613,16 @@
         <v>146</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7668,7 +7671,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7689,10 +7692,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7703,10 +7706,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7821,10 +7824,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7941,10 +7944,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7970,16 +7973,16 @@
         <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -8004,11 +8007,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -8026,7 +8029,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8047,10 +8050,10 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -8061,10 +8064,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8090,13 +8093,13 @@
         <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8146,7 +8149,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8167,10 +8170,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8181,10 +8184,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8207,17 +8210,17 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8266,7 +8269,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8287,10 +8290,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8301,10 +8304,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8330,14 +8333,14 @@
         <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8386,7 +8389,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8407,10 +8410,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8421,10 +8424,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8447,19 +8450,19 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8508,7 +8511,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8529,10 +8532,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8543,10 +8546,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8572,16 +8575,16 @@
         <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8630,7 +8633,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8651,10 +8654,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8665,10 +8668,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8691,19 +8694,19 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8731,10 +8734,10 @@
         <v>150</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8752,7 +8755,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8761,7 +8764,7 @@
         <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>104</v>
@@ -8773,10 +8776,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8787,14 +8790,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8813,19 +8816,19 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8853,10 +8856,10 @@
         <v>150</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8874,7 +8877,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8892,27 +8895,27 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8935,19 +8938,19 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8996,7 +8999,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9017,10 +9020,10 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -9031,10 +9034,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9057,16 +9060,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9092,13 +9095,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9116,7 +9119,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9134,27 +9137,27 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9177,19 +9180,19 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9214,13 +9217,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9238,7 +9241,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9259,10 +9262,10 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9273,10 +9276,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9299,16 +9302,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9358,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9376,27 +9379,27 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9419,16 +9422,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9478,7 +9481,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9496,27 +9499,27 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9539,19 +9542,19 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9600,7 +9603,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9612,7 +9615,7 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -9621,10 +9624,10 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9635,10 +9638,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9753,10 +9756,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9873,14 +9876,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9902,16 +9905,16 @@
         <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9960,7 +9963,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9984,7 +9987,7 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9995,10 +9998,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10021,13 +10024,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10078,7 +10081,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10087,7 +10090,7 @@
         <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>104</v>
@@ -10099,10 +10102,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10113,10 +10116,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10139,13 +10142,13 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10196,7 +10199,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10205,7 +10208,7 @@
         <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>104</v>
@@ -10217,10 +10220,10 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10231,10 +10234,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10257,19 +10260,19 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10294,13 +10297,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10318,7 +10321,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10336,13 +10339,13 @@
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10353,10 +10356,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10379,19 +10382,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10416,13 +10419,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10440,7 +10443,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10458,13 +10461,13 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10475,10 +10478,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10501,17 +10504,17 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10560,7 +10563,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10584,7 +10587,7 @@
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
@@ -10595,10 +10598,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10624,10 +10627,10 @@
         <v>106</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10678,7 +10681,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10699,10 +10702,10 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
@@ -10713,10 +10716,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10739,16 +10742,16 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10798,7 +10801,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10819,10 +10822,10 @@
         <v>20</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
@@ -10833,10 +10836,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10859,16 +10862,16 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10918,7 +10921,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10939,10 +10942,10 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -10953,10 +10956,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10979,19 +10982,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11040,7 +11043,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11061,10 +11064,10 @@
         <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11075,10 +11078,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11193,10 +11196,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11313,14 +11316,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11342,16 +11345,16 @@
         <v>113</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11400,7 +11403,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11424,7 +11427,7 @@
         <v>20</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11435,10 +11438,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11461,19 +11464,19 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11498,13 +11501,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11522,7 +11525,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>92</v>
@@ -11540,16 +11543,16 @@
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>20</v>
@@ -11557,10 +11560,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11583,19 +11586,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11644,7 +11647,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11662,27 +11665,27 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11705,19 +11708,19 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11745,10 +11748,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -11766,7 +11769,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11775,7 +11778,7 @@
         <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>104</v>
@@ -11787,10 +11790,10 @@
         <v>20</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -11801,14 +11804,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11827,19 +11830,19 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>20</v>
@@ -11867,10 +11870,10 @@
         <v>150</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -11888,7 +11891,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11906,27 +11909,27 @@
         <v>20</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11952,16 +11955,16 @@
         <v>82</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -12010,7 +12013,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12031,10 +12034,10 @@
         <v>20</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
+++ b/docs/StructureDefinition-CQDGObservationFamilyRelationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
